--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1983596.701741404</v>
+        <v>2080266.678225779</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>284.5615160058696</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>344.1623661071014</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>15.4619242480334</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>6.740233230159974</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>375.7144888697885</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>53.65867788356565</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.84234274505293</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>43.19563242961178</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>31.75244787057838</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>99.52155958671069</v>
+        <v>235.4745188564437</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>117.6769141031107</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1582,19 +1584,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>181.1375494785995</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365875</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1818,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>177.520220537916</v>
       </c>
       <c r="U16" t="n">
-        <v>181.1375494785995</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>74.75769145492406</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>124.9598142566934</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>197.4995743803896</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>18.93482921065027</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>76.34924850973036</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>150.4771497629683</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>45.28085849688337</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.9308270352741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>140.9031752657906</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,19 +3240,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>19.58945082857525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>56.75574343264577</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>139.4881144206584</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>18.26879610203984</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>6.258994819929726</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,16 +3714,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3758,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,7 +3796,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>74.75769145492406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>163.689844124971</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>51.06561173382029</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2118.304160219349</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>2118.304160219349</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>409.2948950230955</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C4" t="n">
-        <v>409.2948950230955</v>
+        <v>411.0461427127113</v>
       </c>
       <c r="D4" t="n">
-        <v>409.2948950230955</v>
+        <v>411.0461427127113</v>
       </c>
       <c r="E4" t="n">
-        <v>409.2948950230955</v>
+        <v>411.0461427127113</v>
       </c>
       <c r="F4" t="n">
-        <v>409.2948950230955</v>
+        <v>264.156195214801</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>264.156195214801</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>106.4078226473311</v>
       </c>
       <c r="I4" t="n">
         <v>99.59950625323012</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W4" t="n">
-        <v>409.2948950230955</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X4" t="n">
-        <v>409.2948950230955</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y4" t="n">
-        <v>409.2948950230955</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.41262192169</v>
+        <v>1181.549686895097</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>812.5871699546856</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>454.3214713479351</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.948406287348</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.948406287348</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2424.313739259411</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2170.551953897502</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2170.551953897502</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2170.551953897502</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>2170.551953897502</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y5" t="n">
-        <v>1780.41262192169</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.7222632714563</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="C7" t="n">
-        <v>210.7222632714563</v>
+        <v>88.12716641132701</v>
       </c>
       <c r="D7" t="n">
-        <v>210.7222632714563</v>
+        <v>88.12716641132701</v>
       </c>
       <c r="E7" t="n">
-        <v>210.7222632714563</v>
+        <v>88.12716641132701</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7222632714563</v>
+        <v>88.12716641132701</v>
       </c>
       <c r="G7" t="n">
-        <v>210.7222632714563</v>
+        <v>88.12716641132701</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>88.12716641132701</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>88.12716641132701</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4765,10 +4767,10 @@
         <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714563</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.7222632714563</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.153685885794</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C8" t="n">
-        <v>869.1911689453825</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D8" t="n">
-        <v>510.925470338632</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>510.925470338632</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>99.93956554902445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>86.01616148761535</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>86.01616148761535</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.358616186807</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.892857925728</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.753525949916</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>627.60215634107</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V10" t="n">
-        <v>627.60215634107</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W10" t="n">
-        <v>338.1849863041093</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>338.1849863041093</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>338.1849863041093</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5036,34 +5038,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.706702364128</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193956</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420603</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
         <v>4667.761053946815</v>
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5151,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839441</v>
+        <v>1071.825331633859</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839441</v>
+        <v>902.8891487059525</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839441</v>
+        <v>752.7725092936167</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839441</v>
+        <v>604.8594157112236</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839441</v>
+        <v>457.9694682133132</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5221,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>1253.473796464099</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>1253.473796464099</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>1253.473796464099</v>
       </c>
     </row>
     <row r="14">
@@ -5255,52 +5257,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
         <v>4667.761053946815</v>
@@ -5309,19 +5311,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5388,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839441</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839441</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839441</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839441</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5464,22 +5466,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1495.513770610355</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1206.410903735999</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>951.7264155301116</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5501,64 +5503,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5589,7 +5591,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5598,7 +5600,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5695,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998329</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
@@ -5747,7 +5749,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5768,34 +5770,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>3154.542034367489</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>2980.089005086362</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>2831.154595425111</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>2671.917140419655</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>2525.38258244654</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279158</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>2298.517587917025</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789528</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878964</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297018</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.410164773121</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012237</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505717</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183572</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>4227.758635317988</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>3530.517670152511</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>3322.757371387557</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3404.024949728935</v>
+        <v>368.6730165490254</v>
       </c>
       <c r="C22" t="n">
-        <v>3235.088766801028</v>
+        <v>368.6730165490254</v>
       </c>
       <c r="D22" t="n">
-        <v>3084.972127388692</v>
+        <v>368.6730165490254</v>
       </c>
       <c r="E22" t="n">
-        <v>3084.972127388692</v>
+        <v>368.6730165490254</v>
       </c>
       <c r="F22" t="n">
-        <v>3084.972127388692</v>
+        <v>221.7830690511151</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4778.05172241972</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>4578.557202843569</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>4578.557202843569</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>4323.872714637682</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>4034.455544600722</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="X22" t="n">
-        <v>3806.465993702705</v>
+        <v>771.1140605227953</v>
       </c>
       <c r="Y22" t="n">
-        <v>3585.673414559174</v>
+        <v>550.3214813792652</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5986,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -6042,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6099,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1023.336921276364</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C25" t="n">
-        <v>854.4007383484569</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D25" t="n">
-        <v>704.2840989361212</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E25" t="n">
-        <v>556.371005353728</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>114.6871245601624</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6172,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1943.184686185112</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>1653.767516148151</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>1425.777965250134</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>1204.985386106604</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6233,43 +6235,43 @@
         <v>1237.706702364128</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193956</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6309,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6336,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>414.613856788637</v>
+        <v>561.5038042865474</v>
       </c>
       <c r="C28" t="n">
-        <v>245.6776738607301</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6409,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1879.223013064572</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1657.456397634098</v>
+        <v>1804.346345132009</v>
       </c>
       <c r="U28" t="n">
-        <v>1368.353530759742</v>
+        <v>1515.243478257652</v>
       </c>
       <c r="V28" t="n">
-        <v>1113.669042553855</v>
+        <v>1260.558990051765</v>
       </c>
       <c r="W28" t="n">
-        <v>824.2518725168941</v>
+        <v>971.1418200148045</v>
       </c>
       <c r="X28" t="n">
-        <v>596.2623216188767</v>
+        <v>743.1522691167871</v>
       </c>
       <c r="Y28" t="n">
-        <v>596.2623216188767</v>
+        <v>743.1522691167871</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6473,7 +6475,7 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6494,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>508.5026418377232</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="C31" t="n">
-        <v>508.5026418377232</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D31" t="n">
-        <v>508.5026418377232</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E31" t="n">
-        <v>360.5895482553301</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F31" t="n">
-        <v>360.5895482553301</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6643,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>909.2731541783409</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X31" t="n">
-        <v>909.2731541783409</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="Y31" t="n">
-        <v>690.1511066679629</v>
+        <v>855.6340846510827</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6688,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6704,13 +6706,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
@@ -6753,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6798,7 +6800,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,22 +6809,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3942.370854773035</v>
+        <v>555.7069501484259</v>
       </c>
       <c r="C34" t="n">
-        <v>3773.434671845128</v>
+        <v>555.7069501484259</v>
       </c>
       <c r="D34" t="n">
-        <v>3623.318032432792</v>
+        <v>405.5903107360901</v>
       </c>
       <c r="E34" t="n">
-        <v>3475.404938850399</v>
+        <v>405.5903107360901</v>
       </c>
       <c r="F34" t="n">
-        <v>3328.514991352489</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4586.365838246546</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>4364.599222816072</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U34" t="n">
-        <v>4364.599222816072</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V34" t="n">
-        <v>4364.599222816072</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="W34" t="n">
-        <v>4364.599222816072</v>
+        <v>1186.137545020213</v>
       </c>
       <c r="X34" t="n">
-        <v>4344.811898746804</v>
+        <v>958.1479941221958</v>
       </c>
       <c r="Y34" t="n">
-        <v>4124.019319603274</v>
+        <v>737.3554149786656</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6920,7 +6922,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
         <v>850.213983755162</v>
@@ -6971,16 +6973,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3384.235206686047</v>
+        <v>3162.508061527459</v>
       </c>
       <c r="C37" t="n">
-        <v>3215.29902375814</v>
+        <v>3162.508061527459</v>
       </c>
       <c r="D37" t="n">
-        <v>3065.182384345804</v>
+        <v>3162.508061527459</v>
       </c>
       <c r="E37" t="n">
-        <v>2917.269290763411</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="F37" t="n">
-        <v>2917.269290763411</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="G37" t="n">
-        <v>2917.269290763411</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763411</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I37" t="n">
         <v>2917.269290763411</v>
@@ -7117,28 +7119,28 @@
         <v>4778.05172241972</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177248</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004074</v>
+        <v>4586.365838246546</v>
       </c>
       <c r="T37" t="n">
-        <v>4274.7687655736</v>
+        <v>4364.599222816072</v>
       </c>
       <c r="U37" t="n">
-        <v>3985.665898699243</v>
+        <v>4075.496355941716</v>
       </c>
       <c r="V37" t="n">
-        <v>3730.981410493357</v>
+        <v>3820.811867735829</v>
       </c>
       <c r="W37" t="n">
-        <v>3441.564240456396</v>
+        <v>3531.394697698868</v>
       </c>
       <c r="X37" t="n">
-        <v>3441.564240456396</v>
+        <v>3303.405146800851</v>
       </c>
       <c r="Y37" t="n">
-        <v>3441.564240456396</v>
+        <v>3162.508061527459</v>
       </c>
     </row>
     <row r="38">
@@ -7157,7 +7159,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
@@ -7172,19 +7174,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1002.806306216375</v>
       </c>
       <c r="L38" t="n">
-        <v>1069.293752345675</v>
+        <v>1453.840519464783</v>
       </c>
       <c r="M38" t="n">
-        <v>2047.844055175504</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903276</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232731</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>242.4509819463048</v>
+        <v>879.542498853856</v>
       </c>
       <c r="C40" t="n">
-        <v>242.4509819463048</v>
+        <v>710.6063159259492</v>
       </c>
       <c r="D40" t="n">
-        <v>242.4509819463048</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839441</v>
@@ -7360,22 +7362,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>1509.973093725643</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>1509.973093725643</v>
       </c>
       <c r="X40" t="n">
-        <v>481.6968904858347</v>
+        <v>1281.983542827626</v>
       </c>
       <c r="Y40" t="n">
-        <v>260.9043113423046</v>
+        <v>1061.190963684096</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839441</v>
@@ -7415,13 +7417,13 @@
         <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1236.699401366028</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M41" t="n">
-        <v>1770.231306037953</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903276</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232731</v>
@@ -7445,16 +7447,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>171.0738540998329</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C43" t="n">
-        <v>171.0738540998329</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839441</v>
@@ -7591,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783409</v>
+        <v>1943.184686185112</v>
       </c>
       <c r="W43" t="n">
-        <v>619.8559841413803</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X43" t="n">
-        <v>391.866433243363</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.0738540998329</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="44">
@@ -7649,16 +7651,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216375</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464783</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232731</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>730.2297869963112</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C46" t="n">
-        <v>561.2936040684043</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839441</v>
@@ -7831,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1904.762040110946</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1650.077551905059</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>1360.660381868098</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>1132.670830970081</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>911.8782518265509</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8471,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L11" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400246</v>
+        <v>216.9877583263337</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9413,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277297</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -10121,10 +10123,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>189.7998007892644</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10352,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>219.3344627260154</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,10 +10834,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>7.630896635343674</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11063,16 +11065,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>288.0478149561022</v>
+        <v>251.1867816683974</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11297,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260154</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>48.34889415591748</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>105.0742887270134</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>42.02872873825322</v>
       </c>
       <c r="U16" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>91.26811680410417</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>41.0659940023348</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24175,19 +24177,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>22.04937489577961</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>77.41759119918783</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24649,10 +24651,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>113.4197768217115</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>69.07179951320092</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>180.4287968921538</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.65382631682067</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.51787275714068</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>206.1202045604619</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>123.0762367492915</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>79.09653893143638</v>
       </c>
     </row>
     <row r="38">
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>161.5631840798974</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>142.3564781982826</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25600,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>73.8577815632883</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3.556976973656788</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26071,13 +26073,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>235.1462264717926</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>858169.5622079785</v>
+        <v>858169.5622079786</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417764</v>
       </c>
       <c r="F2" t="n">
         <v>555914.5016417764</v>
       </c>
       <c r="G2" t="n">
+        <v>555914.5016417764</v>
+      </c>
+      <c r="H2" t="n">
         <v>555914.5016417766</v>
       </c>
-      <c r="H2" t="n">
-        <v>555914.5016417764</v>
-      </c>
       <c r="I2" t="n">
-        <v>555914.5016417763</v>
+        <v>555914.5016417765</v>
       </c>
       <c r="J2" t="n">
         <v>555914.5016417764</v>
       </c>
       <c r="K2" t="n">
-        <v>555914.5016417768</v>
+        <v>555914.5016417765</v>
       </c>
       <c r="L2" t="n">
+        <v>555914.5016417765</v>
+      </c>
+      <c r="M2" t="n">
         <v>555914.5016417766</v>
       </c>
-      <c r="M2" t="n">
-        <v>555914.5016417769</v>
-      </c>
       <c r="N2" t="n">
-        <v>555914.5016417766</v>
+        <v>555914.5016417764</v>
       </c>
       <c r="O2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417761</v>
       </c>
       <c r="P2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417764</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>201064.5059277315</v>
+      </c>
+      <c r="C4" t="n">
         <v>201064.5059277316</v>
-      </c>
-      <c r="C4" t="n">
-        <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499382</v>
@@ -26457,7 +26459,7 @@
         <v>25090.7236749938</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26475,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-299162.2243006866</v>
+        <v>-299162.2243006863</v>
       </c>
       <c r="C6" t="n">
         <v>290805.6549138576</v>
       </c>
       <c r="D6" t="n">
-        <v>290805.6549138575</v>
+        <v>290805.6549138578</v>
       </c>
       <c r="E6" t="n">
-        <v>-292937.1542803375</v>
+        <v>-292937.1542803377</v>
       </c>
       <c r="F6" t="n">
+        <v>434440.2597130689</v>
+      </c>
+      <c r="G6" t="n">
+        <v>434440.2597130689</v>
+      </c>
+      <c r="H6" t="n">
+        <v>434440.2597130691</v>
+      </c>
+      <c r="I6" t="n">
         <v>434440.259713069</v>
-      </c>
-      <c r="G6" t="n">
-        <v>434440.2597130692</v>
-      </c>
-      <c r="H6" t="n">
-        <v>434440.259713069</v>
-      </c>
-      <c r="I6" t="n">
-        <v>434440.2597130688</v>
       </c>
       <c r="J6" t="n">
         <v>258017.040520476</v>
       </c>
       <c r="K6" t="n">
-        <v>434440.2597130693</v>
+        <v>434440.259713069</v>
       </c>
       <c r="L6" t="n">
-        <v>434440.2597130692</v>
+        <v>434440.2597130691</v>
       </c>
       <c r="M6" t="n">
-        <v>304797.9448741247</v>
+        <v>304797.9448741245</v>
       </c>
       <c r="N6" t="n">
-        <v>434440.2597130692</v>
+        <v>434440.259713069</v>
       </c>
       <c r="O6" t="n">
-        <v>434440.2597130691</v>
+        <v>434440.2597130686</v>
       </c>
       <c r="P6" t="n">
-        <v>434440.2597130691</v>
+        <v>434440.259713069</v>
       </c>
     </row>
   </sheetData>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>42.07557254895215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>151.8478780110175</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>128.2253885621782</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>6.215881202473327</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8197246912460727</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9594002052142798</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>11.35761644348407</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>339.5382092338688</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>120.1788683742829</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,13 +27909,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28065,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>186.7603146552671</v>
+        <v>50.80735538553404</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28138,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28308,7 +28310,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>3.534950110406498e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31838,7 +31840,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
@@ -31859,7 +31861,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -32075,10 +32077,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32321,7 +32323,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32549,7 +32551,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35191,7 +35193,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35261,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
@@ -35507,7 +35509,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282437</v>
+        <v>725.0407592145528</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36133,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36598,7 +36600,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200619</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36841,10 +36843,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>742.1016362021759</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,7 +37074,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37081,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>556.5257492814159</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37552,10 +37554,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>559.9327320482552</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37783,16 +37785,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>840.3496503690137</v>
+        <v>803.4886170813089</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -38017,19 +38019,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814159</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
